--- a/out.xlsx
+++ b/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Company</t>
   </si>
@@ -31,88 +31,94 @@
     <t>EPS Growth</t>
   </si>
   <si>
-    <t>Total Shareholders Equity</t>
+    <t>Total Shareholders Equity Growth</t>
   </si>
   <si>
     <t>Free Cash Flow Change</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>20%</t>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>-5%</t>
+  </si>
+  <si>
+    <t>-41%</t>
+  </si>
+  <si>
+    <t>-1%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>-3%</t>
   </si>
   <si>
     <t>24%</t>
   </si>
   <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>2019-06-30</t>
-  </si>
-  <si>
-    <t>22%</t>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>-12%</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>-50%</t>
+  </si>
+  <si>
+    <t>-4%</t>
+  </si>
+  <si>
+    <t>-0%</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
   </si>
   <si>
     <t>15%</t>
   </si>
   <si>
-    <t>138%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>2018-06-30</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>-35%</t>
-  </si>
-  <si>
-    <t>-6%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>9657099999900%</t>
-  </si>
-  <si>
-    <t>231%</t>
-  </si>
-  <si>
-    <t>8771099999900%</t>
-  </si>
-  <si>
-    <t>3137799999900%</t>
+    <t>7991899999900%</t>
+  </si>
+  <si>
+    <t>1155%</t>
+  </si>
+  <si>
+    <t>1824599999900%</t>
+  </si>
+  <si>
+    <t>1351699999900%</t>
   </si>
 </sst>
 </file>
@@ -504,19 +510,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -524,22 +530,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -547,22 +553,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -570,22 +576,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
